--- a/biology/Médecine/Helisaeus_Röslin/Helisaeus_Röslin.xlsx
+++ b/biology/Médecine/Helisaeus_Röslin/Helisaeus_Röslin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Helisaeus_R%C3%B6slin</t>
+          <t>Helisaeus_Röslin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helisaeus Röslin (17 janvier 1545 - 14 août 1616) était un médecin allemand de la Renaissance.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Helisaeus_R%C3%B6slin</t>
+          <t>Helisaeus_Röslin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Helisaeus Röslin (à ne pas confondre avec Eucharius Röslin père, mort à Francfort en 1526, et Eucharius Röslin fils, mort à Francfort en 1553) est né dans le duché de Wurtemberg, à Plieningen, en 1544 ou 1545. Il suit des études au gymnasium de Stuttgart puis à l'Université de Tübingen à partir de 1561. Le plus célèbre de ses professeurs de médecine est alors Samuel Eisenmenger. Il obtient son doctorat en médecine à Tübingen en 1569.
 Lorsque Samuel Eisenmenger est appelé à Durlach pour être le médecin personnel du Markgraf badois Karl, Röslin le suit. Puis Röslin commence à exercer à Pforzheim, où il se marie avec la fille du théologien Jakob Beurlin (1520-1561).
